--- a/papers/file/summary.xlsx
+++ b/papers/file/summary.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Trading" sheetId="1" r:id="rId1"/>
     <sheet name="Workload shifting" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Privacy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>battery</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>✓,for utility operator</t>
+  </si>
+  <si>
+    <t>schedule workloads</t>
   </si>
 </sst>
 </file>
@@ -447,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,12 +619,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/papers/file/summary.xlsx
+++ b/papers/file/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>battery</t>
   </si>
@@ -85,6 +85,84 @@
   </si>
   <si>
     <t>schedule workloads</t>
+  </si>
+  <si>
+    <t>weighted importances</t>
+  </si>
+  <si>
+    <t>Onur Tan</t>
+  </si>
+  <si>
+    <t>SmartGridComm-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">privacy-energy efficiency tradeoff </t>
+  </si>
+  <si>
+    <t>markov chain</t>
+  </si>
+  <si>
+    <t>use equivolance to measure privacy</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>game theory</t>
+  </si>
+  <si>
+    <t>G.Kalogridis</t>
+  </si>
+  <si>
+    <t>ISPAW-11</t>
+  </si>
+  <si>
+    <t>minimize privacy leakage</t>
+  </si>
+  <si>
+    <t>water filling algorithm</t>
+  </si>
+  <si>
+    <t>D.Gunduz</t>
+  </si>
+  <si>
+    <t>ICC-13</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>exhausted all states</t>
+  </si>
+  <si>
+    <t>simple algorithm</t>
+  </si>
+  <si>
+    <t>they only consider avg renewable energy rate?</t>
+  </si>
+  <si>
+    <t>Jing Zhao</t>
+  </si>
+  <si>
+    <t>INFOCOM-14</t>
+  </si>
+  <si>
+    <t>guarantee differential privacy</t>
+  </si>
+  <si>
+    <t>they use other definition of privacy: i.e., differential privacy</t>
+  </si>
+  <si>
+    <t>maximize relative entropy</t>
+  </si>
+  <si>
+    <t>relative entropy</t>
+  </si>
+  <si>
+    <t>Best Effort (BE) scheme</t>
+  </si>
+  <si>
+    <t>try to keep electricity usage from grid at the same level at two consecutive time slots</t>
   </si>
 </sst>
 </file>
@@ -451,7 +529,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +620,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +683,9 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
@@ -619,10 +700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,14 +713,15 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -656,22 +738,196 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/papers/file/summary.xlsx
+++ b/papers/file/summary.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Energy Trading" sheetId="1" r:id="rId1"/>
     <sheet name="Workload shifting" sheetId="2" r:id="rId2"/>
-    <sheet name="Privacy" sheetId="3" r:id="rId3"/>
+    <sheet name="Privacy-BLH" sheetId="3" r:id="rId3"/>
+    <sheet name="Privacy-Other" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>battery</t>
   </si>
@@ -163,6 +164,72 @@
   </si>
   <si>
     <t>try to keep electricity usage from grid at the same level at two consecutive time slots</t>
+  </si>
+  <si>
+    <t>Stephen McLaughlin</t>
+  </si>
+  <si>
+    <t>CCS-11</t>
+  </si>
+  <si>
+    <t>reduce information leakage</t>
+  </si>
+  <si>
+    <t>Non-intrusive Load Leveling (NILL)</t>
+  </si>
+  <si>
+    <t>Tassos Dimitriou</t>
+  </si>
+  <si>
+    <t>SAC-13</t>
+  </si>
+  <si>
+    <t>aggregator</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>protect privacy</t>
+  </si>
+  <si>
+    <t>protocol design</t>
+  </si>
+  <si>
+    <t>look into the protocols</t>
+  </si>
+  <si>
+    <t>David Varodayan</t>
+  </si>
+  <si>
+    <t>ICASSP-11</t>
+  </si>
+  <si>
+    <t>mutual information</t>
+  </si>
+  <si>
+    <t>finite state model</t>
+  </si>
+  <si>
+    <t>look into how they model mutual information</t>
+  </si>
+  <si>
+    <t>Lei Yang</t>
+  </si>
+  <si>
+    <t>SmartGridTrac-15</t>
+  </si>
+  <si>
+    <t>tradeooff cost and privacy leakage</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>modeled as variance of P(t)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +596,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +687,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,15 +767,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
@@ -717,11 +784,12 @@
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -750,13 +818,16 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -784,14 +855,14 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -817,14 +888,15 @@
         <v>33</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -849,14 +921,14 @@
       <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -881,11 +953,11 @@
       <c r="H5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -913,11 +985,113 @@
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -927,6 +1101,92 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/file/summary.xlsx
+++ b/papers/file/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>battery</t>
   </si>
@@ -230,6 +230,24 @@
   </si>
   <si>
     <t>modeled as variance of P(t)</t>
+  </si>
+  <si>
+    <t>Dominik Egarter</t>
+  </si>
+  <si>
+    <t>INFOCOM-WSP-14</t>
+  </si>
+  <si>
+    <t>propose privacy quantification metrics</t>
+  </si>
+  <si>
+    <t>statistic test</t>
+  </si>
+  <si>
+    <t>entropy + statistic test</t>
+  </si>
+  <si>
+    <t>define privacy metrics may be a good topic</t>
   </si>
 </sst>
 </file>
@@ -767,10 +785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +800,7 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
     <col min="11" max="11" width="34.85546875" customWidth="1"/>
@@ -1092,6 +1110,41 @@
       </c>
       <c r="J9" s="3" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +1157,7 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
